--- a/biology/Botanique/Doritis/Doritis.xlsx
+++ b/biology/Botanique/Doritis/Doritis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Doritis était un genre de plantes de la famille des orchidaceae. Depuis 1998, à la suite des travaux de Christenson basés sur la classification phylogénétique (APG III), ce genre est rattaché aux Phalaenopsis.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les 4 espèces initialement classées dans ce genre sont tellement différentes (certaines sont terrestres, d'autres épiphytes... ) qu'une description type est difficile.
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,7 +584,9 @@
           <t>Espèces botaniques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Doritis braceana (Hook.f., 1890) = Phalaenopsis braceana (Christenson, 1986).
 Doritis hebe, latifolia, philippinensis, steffensii, wightii = Phalaenopsis deliciosa (Rchb.f., 1854)
@@ -601,7 +619,9 @@
           <t>Hybrides</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les publications officielles de la Royal Horticultural Society utilisent toujours le genre Doritaenopsis (Doritis × Phalaenopsis) pour enregistrer  les hybrides secondaires obtenus à partir des espèces botaniques citées ci-dessus.
 </t>
